--- a/evaluation/results/isolation_forest/augmented/shift_2/split_1/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/shift_2/split_1/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7256554307116105</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="C2">
-        <v>0.8472622478386167</v>
+        <v>0.5407098121085595</v>
       </c>
       <c r="D2">
-        <v>0.550561797752809</v>
+        <v>0.9700374531835206</v>
       </c>
       <c r="E2">
-        <v>0.6674233825198638</v>
+        <v>0.6943699731903485</v>
       </c>
       <c r="F2">
-        <v>0.5920257752718485</v>
+        <v>0.8371040723981901</v>
       </c>
       <c r="G2">
-        <v>0.5580784113309484</v>
+        <v>0.9412915851272016</v>
       </c>
       <c r="H2">
-        <v>0.7256554307116104</v>
+        <v>0.7734678561909971</v>
       </c>
       <c r="I2">
-        <v>294</v>
+        <v>518</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>440</v>
       </c>
       <c r="K2">
-        <v>481</v>
+        <v>94</v>
       </c>
       <c r="L2">
-        <v>240</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6671289875173371</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="C2">
-        <v>0.900749063670412</v>
+        <v>0.1760299625468165</v>
       </c>
       <c r="D2">
-        <v>0.7665338645418327</v>
+        <v>0.2919254658385093</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.8472622478386167</v>
+        <v>0.5407098121085595</v>
       </c>
       <c r="C3">
-        <v>0.550561797752809</v>
+        <v>0.9700374531835206</v>
       </c>
       <c r="D3">
-        <v>0.6674233825198638</v>
+        <v>0.6943699731903485</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7256554307116105</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="C4">
-        <v>0.7256554307116105</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="D4">
-        <v>0.7256554307116105</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="E4">
-        <v>0.7256554307116105</v>
+        <v>0.5730337078651685</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7571956176779768</v>
+        <v>0.6976276333270071</v>
       </c>
       <c r="C5">
-        <v>0.7256554307116105</v>
+        <v>0.5730337078651686</v>
       </c>
       <c r="D5">
-        <v>0.7169786235308482</v>
+        <v>0.4931477195144289</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7571956176779768</v>
+        <v>0.6976276333270071</v>
       </c>
       <c r="C6">
-        <v>0.7256554307116105</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="D6">
-        <v>0.7169786235308482</v>
+        <v>0.4931477195144289</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>481</v>
+        <v>94</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>294</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
